--- a/data/pca/factorExposure/factorExposure_2016-05-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01028670221156918</v>
+        <v>0.01291307397606905</v>
       </c>
       <c r="C2">
-        <v>-0.05549352890921325</v>
+        <v>0.03905653010051247</v>
       </c>
       <c r="D2">
-        <v>-0.04087301031670527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05417126665702483</v>
+      </c>
+      <c r="E2">
+        <v>-0.08711550433624855</v>
+      </c>
+      <c r="F2">
+        <v>0.08669419050962833</v>
+      </c>
+      <c r="G2">
+        <v>0.005483208912005559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04023358641772042</v>
+        <v>0.02559560373325288</v>
       </c>
       <c r="C3">
-        <v>-0.1173467952555452</v>
+        <v>0.06758198198668711</v>
       </c>
       <c r="D3">
-        <v>-0.09624000211714549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07354124515216644</v>
+      </c>
+      <c r="E3">
+        <v>-0.06635078933932645</v>
+      </c>
+      <c r="F3">
+        <v>-0.02491360360392194</v>
+      </c>
+      <c r="G3">
+        <v>0.04211895425572762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05891061851477593</v>
+        <v>0.05749796258222391</v>
       </c>
       <c r="C4">
-        <v>-0.06223974552486648</v>
+        <v>0.064936957298893</v>
       </c>
       <c r="D4">
-        <v>-0.02851878259903035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.04940970425588647</v>
+      </c>
+      <c r="E4">
+        <v>-0.08424453756186447</v>
+      </c>
+      <c r="F4">
+        <v>0.06080404122889506</v>
+      </c>
+      <c r="G4">
+        <v>0.07809583494740409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03973244658773455</v>
+        <v>0.03521794370889984</v>
       </c>
       <c r="C6">
-        <v>-0.03633982308314579</v>
+        <v>0.02808263581039222</v>
       </c>
       <c r="D6">
-        <v>-0.03332282845660298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05825583653123589</v>
+      </c>
+      <c r="E6">
+        <v>-0.08754204972175873</v>
+      </c>
+      <c r="F6">
+        <v>0.04495806460052936</v>
+      </c>
+      <c r="G6">
+        <v>0.06133765497271108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02152598049150267</v>
+        <v>0.01738705314943666</v>
       </c>
       <c r="C7">
-        <v>-0.04748654686556705</v>
+        <v>0.03995292165385662</v>
       </c>
       <c r="D7">
-        <v>0.009074596343089117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03184107499141461</v>
+      </c>
+      <c r="E7">
+        <v>-0.06117832281871237</v>
+      </c>
+      <c r="F7">
+        <v>0.09210859840628018</v>
+      </c>
+      <c r="G7">
+        <v>0.07077739787876247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005844489399456461</v>
+        <v>0.003360187155520819</v>
       </c>
       <c r="C8">
-        <v>-0.03586336756703141</v>
+        <v>0.03213597787635589</v>
       </c>
       <c r="D8">
-        <v>-0.02670261556155221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02963209800985054</v>
+      </c>
+      <c r="E8">
+        <v>-0.05805403909308344</v>
+      </c>
+      <c r="F8">
+        <v>0.02992946223798707</v>
+      </c>
+      <c r="G8">
+        <v>0.03221096413631246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03321782609055112</v>
+        <v>0.03691508400207909</v>
       </c>
       <c r="C9">
-        <v>-0.04954731074107344</v>
+        <v>0.05228285026647801</v>
       </c>
       <c r="D9">
-        <v>-0.01219494249389054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03555285062879757</v>
+      </c>
+      <c r="E9">
+        <v>-0.07149095789845164</v>
+      </c>
+      <c r="F9">
+        <v>0.07153931777458168</v>
+      </c>
+      <c r="G9">
+        <v>0.06816803503926111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08011919525145172</v>
+        <v>0.1038288375455988</v>
       </c>
       <c r="C10">
-        <v>0.1877299867457394</v>
+        <v>-0.1955787497124527</v>
       </c>
       <c r="D10">
-        <v>0.008127604169375446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01406612255397425</v>
+      </c>
+      <c r="E10">
+        <v>-0.04049252659937359</v>
+      </c>
+      <c r="F10">
+        <v>0.02455418160433226</v>
+      </c>
+      <c r="G10">
+        <v>0.02691183412904422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04094301572316866</v>
+        <v>0.03610442420719036</v>
       </c>
       <c r="C11">
-        <v>-0.05267122336628295</v>
+        <v>0.04867973406590516</v>
       </c>
       <c r="D11">
-        <v>-0.01043949375721013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02981201462599216</v>
+      </c>
+      <c r="E11">
+        <v>-0.02457748968970587</v>
+      </c>
+      <c r="F11">
+        <v>0.05520712719805231</v>
+      </c>
+      <c r="G11">
+        <v>0.05379507205194566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0428551630070545</v>
+        <v>0.03814255168514394</v>
       </c>
       <c r="C12">
-        <v>-0.04856535234554399</v>
+        <v>0.04608272644955936</v>
       </c>
       <c r="D12">
-        <v>-0.001745087135906287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02412681242270652</v>
+      </c>
+      <c r="E12">
+        <v>-0.03293131140906067</v>
+      </c>
+      <c r="F12">
+        <v>0.05659964845330966</v>
+      </c>
+      <c r="G12">
+        <v>0.05072268955995846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0137664697504353</v>
+        <v>0.01088828629985442</v>
       </c>
       <c r="C13">
-        <v>-0.05430623832089464</v>
+        <v>0.04261889205573292</v>
       </c>
       <c r="D13">
-        <v>-0.008083017809444159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04223668312264203</v>
+      </c>
+      <c r="E13">
+        <v>-0.0959143767721088</v>
+      </c>
+      <c r="F13">
+        <v>0.08014446543867444</v>
+      </c>
+      <c r="G13">
+        <v>0.07693485839281743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007427676005292167</v>
+        <v>0.004221246897094406</v>
       </c>
       <c r="C14">
-        <v>-0.04271841354209512</v>
+        <v>0.03373143282108098</v>
       </c>
       <c r="D14">
-        <v>0.01095722040314244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02224252361937162</v>
+      </c>
+      <c r="E14">
+        <v>-0.04958967878279236</v>
+      </c>
+      <c r="F14">
+        <v>0.09150510894705009</v>
+      </c>
+      <c r="G14">
+        <v>0.05586536421308266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002382452617149883</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005338092070263154</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006984248360073233</v>
+      </c>
+      <c r="E15">
+        <v>-0.004384169496487523</v>
+      </c>
+      <c r="F15">
+        <v>0.006450332521903681</v>
+      </c>
+      <c r="G15">
+        <v>0.004597717708518374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03785828679755425</v>
+        <v>0.03391557050427473</v>
       </c>
       <c r="C16">
-        <v>-0.05025992624826782</v>
+        <v>0.04547848426191703</v>
       </c>
       <c r="D16">
-        <v>-0.005937294105885597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02345860868726155</v>
+      </c>
+      <c r="E16">
+        <v>-0.03936171650264842</v>
+      </c>
+      <c r="F16">
+        <v>0.06147443717835189</v>
+      </c>
+      <c r="G16">
+        <v>0.03998736937032578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02254330976908743</v>
+        <v>0.01699187059733513</v>
       </c>
       <c r="C19">
-        <v>-0.06218464767470554</v>
+        <v>0.0448496073573112</v>
       </c>
       <c r="D19">
-        <v>-0.09086646057486551</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08833088747713698</v>
+      </c>
+      <c r="E19">
+        <v>-0.1118551820991847</v>
+      </c>
+      <c r="F19">
+        <v>0.07407991799157503</v>
+      </c>
+      <c r="G19">
+        <v>0.02511392172965628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01630035693374421</v>
+        <v>0.01297518903085275</v>
       </c>
       <c r="C20">
-        <v>-0.04858635469905472</v>
+        <v>0.03910520593452508</v>
       </c>
       <c r="D20">
-        <v>-0.008591718528014974</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02962377495295736</v>
+      </c>
+      <c r="E20">
+        <v>-0.07637151331886212</v>
+      </c>
+      <c r="F20">
+        <v>0.06757079968480863</v>
+      </c>
+      <c r="G20">
+        <v>0.05143932264387197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01062808680488152</v>
+        <v>0.009497442683255882</v>
       </c>
       <c r="C21">
-        <v>-0.04990627725157344</v>
+        <v>0.0411862666776403</v>
       </c>
       <c r="D21">
-        <v>-0.03755322134361778</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05652286740766042</v>
+      </c>
+      <c r="E21">
+        <v>-0.1169100078462413</v>
+      </c>
+      <c r="F21">
+        <v>0.1054875420268507</v>
+      </c>
+      <c r="G21">
+        <v>0.07870700389862585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001144968233395967</v>
+        <v>0.002425124153465289</v>
       </c>
       <c r="C22">
-        <v>-0.0007302951162345315</v>
+        <v>0.02682865734628179</v>
       </c>
       <c r="D22">
-        <v>-0.002809521668009179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0419443198086204</v>
+      </c>
+      <c r="E22">
+        <v>-0.04111055865533596</v>
+      </c>
+      <c r="F22">
+        <v>-0.0004854795354249114</v>
+      </c>
+      <c r="G22">
+        <v>0.05266299892809681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001150635700078916</v>
+        <v>0.002504183733071503</v>
       </c>
       <c r="C23">
-        <v>-0.0007306332219718341</v>
+        <v>0.02698165092241408</v>
       </c>
       <c r="D23">
-        <v>-0.002815222296106517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04153305387781282</v>
+      </c>
+      <c r="E23">
+        <v>-0.04136122457561997</v>
+      </c>
+      <c r="F23">
+        <v>-0.0007517085105453273</v>
+      </c>
+      <c r="G23">
+        <v>0.05272868817174622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03499377366862736</v>
+        <v>0.0340741720719233</v>
       </c>
       <c r="C24">
-        <v>-0.05109730951542539</v>
+        <v>0.05275930937670436</v>
       </c>
       <c r="D24">
-        <v>-0.006845882108885601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02320276119331009</v>
+      </c>
+      <c r="E24">
+        <v>-0.04008516139762153</v>
+      </c>
+      <c r="F24">
+        <v>0.06481868515463381</v>
+      </c>
+      <c r="G24">
+        <v>0.05074692144781551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04791154065465959</v>
+        <v>0.04329670138593947</v>
       </c>
       <c r="C25">
-        <v>-0.06204253787262873</v>
+        <v>0.05670424932518103</v>
       </c>
       <c r="D25">
-        <v>0.004499350467409494</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02250795587034906</v>
+      </c>
+      <c r="E25">
+        <v>-0.02990771674384772</v>
+      </c>
+      <c r="F25">
+        <v>0.05941401666827611</v>
+      </c>
+      <c r="G25">
+        <v>0.06618749715137741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01586081407244182</v>
+        <v>0.01455912153013068</v>
       </c>
       <c r="C26">
-        <v>-0.01818604643637332</v>
+        <v>0.01784003634944198</v>
       </c>
       <c r="D26">
-        <v>-0.001418031552673291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02226377988029536</v>
+      </c>
+      <c r="E26">
+        <v>-0.04965281068295875</v>
+      </c>
+      <c r="F26">
+        <v>0.06695479503543629</v>
+      </c>
+      <c r="G26">
+        <v>0.02868009419537521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.095013640587605</v>
+        <v>0.1392637033770013</v>
       </c>
       <c r="C28">
-        <v>0.2449070940434573</v>
+        <v>-0.2508454245590661</v>
       </c>
       <c r="D28">
-        <v>0.006738217751742397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02797913075324931</v>
+      </c>
+      <c r="E28">
+        <v>-0.05591068630592232</v>
+      </c>
+      <c r="F28">
+        <v>0.0373444436996291</v>
+      </c>
+      <c r="G28">
+        <v>0.04623191586679906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006627318453754332</v>
+        <v>0.004996545137804407</v>
       </c>
       <c r="C29">
-        <v>-0.03447929750743645</v>
+        <v>0.03001827573778966</v>
       </c>
       <c r="D29">
-        <v>0.01537380053770124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01595927569983033</v>
+      </c>
+      <c r="E29">
+        <v>-0.0480177436122439</v>
+      </c>
+      <c r="F29">
+        <v>0.08067247776693934</v>
+      </c>
+      <c r="G29">
+        <v>0.06432188932365511</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04445181816480753</v>
+        <v>0.04025594239004596</v>
       </c>
       <c r="C30">
-        <v>-0.05414377368563959</v>
+        <v>0.05727391290943274</v>
       </c>
       <c r="D30">
-        <v>-0.06732155124020071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09561251178552903</v>
+      </c>
+      <c r="E30">
+        <v>-0.07762587077734436</v>
+      </c>
+      <c r="F30">
+        <v>0.08472307934125972</v>
+      </c>
+      <c r="G30">
+        <v>0.04090776069418793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05818772568355645</v>
+        <v>0.05685198614145669</v>
       </c>
       <c r="C31">
-        <v>-0.04516451931639254</v>
+        <v>0.06142944235832677</v>
       </c>
       <c r="D31">
-        <v>0.03398356903878225</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.016223330135758</v>
+      </c>
+      <c r="E31">
+        <v>-0.06514705575575522</v>
+      </c>
+      <c r="F31">
+        <v>0.043921817152234</v>
+      </c>
+      <c r="G31">
+        <v>0.07951287079357414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001460756562102032</v>
+        <v>0.004700900086441859</v>
       </c>
       <c r="C32">
-        <v>-0.04337943206063338</v>
+        <v>0.03453053525888476</v>
       </c>
       <c r="D32">
-        <v>-0.0471679056487232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05202312426051342</v>
+      </c>
+      <c r="E32">
+        <v>-0.05811636781283031</v>
+      </c>
+      <c r="F32">
+        <v>0.07284050066846008</v>
+      </c>
+      <c r="G32">
+        <v>0.03406910843625901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0309692780807443</v>
+        <v>0.02580731624000811</v>
       </c>
       <c r="C33">
-        <v>-0.06035722917480057</v>
+        <v>0.0537158603335488</v>
       </c>
       <c r="D33">
-        <v>-0.03966873438430686</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06954880090500247</v>
+      </c>
+      <c r="E33">
+        <v>-0.08943044007999169</v>
+      </c>
+      <c r="F33">
+        <v>0.09211239585841144</v>
+      </c>
+      <c r="G33">
+        <v>0.07842345087812438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04518089259385333</v>
+        <v>0.04042527836456523</v>
       </c>
       <c r="C34">
-        <v>-0.06714134919829903</v>
+        <v>0.06462122740253347</v>
       </c>
       <c r="D34">
-        <v>-0.01369833803352643</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0361317192966753</v>
+      </c>
+      <c r="E34">
+        <v>-0.01269775552442234</v>
+      </c>
+      <c r="F34">
+        <v>0.06681070943895639</v>
+      </c>
+      <c r="G34">
+        <v>0.0517977293293768</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0164635522186621</v>
+        <v>0.01421558015950994</v>
       </c>
       <c r="C36">
-        <v>-0.01722211099170715</v>
+        <v>0.01366470414491787</v>
       </c>
       <c r="D36">
-        <v>0.004311674339398987</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02125062583064667</v>
+      </c>
+      <c r="E36">
+        <v>-0.05727595212998936</v>
+      </c>
+      <c r="F36">
+        <v>0.06149859222869865</v>
+      </c>
+      <c r="G36">
+        <v>0.04956143156705736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02958752654522721</v>
+        <v>0.02303905860860396</v>
       </c>
       <c r="C38">
-        <v>-0.03056343533457898</v>
+        <v>0.02376164655659114</v>
       </c>
       <c r="D38">
-        <v>0.01519538398467657</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01895808907758014</v>
+      </c>
+      <c r="E38">
+        <v>-0.04904774132414175</v>
+      </c>
+      <c r="F38">
+        <v>0.05037415713764728</v>
+      </c>
+      <c r="G38">
+        <v>0.03348136377065359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04558716015583979</v>
+        <v>0.03949126185005979</v>
       </c>
       <c r="C39">
-        <v>-0.06562445303126109</v>
+        <v>0.06422671231308959</v>
       </c>
       <c r="D39">
-        <v>-0.01529423304172061</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04734025116782856</v>
+      </c>
+      <c r="E39">
+        <v>-0.04615003212895091</v>
+      </c>
+      <c r="F39">
+        <v>0.08464268894451019</v>
+      </c>
+      <c r="G39">
+        <v>0.03937575811534832</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01224602290158298</v>
+        <v>0.01277463597906379</v>
       </c>
       <c r="C40">
-        <v>-0.05270559658386621</v>
+        <v>0.0380928021341659</v>
       </c>
       <c r="D40">
-        <v>-0.01345575199312689</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02634539333307833</v>
+      </c>
+      <c r="E40">
+        <v>-0.08270788898706177</v>
+      </c>
+      <c r="F40">
+        <v>0.05677222520892832</v>
+      </c>
+      <c r="G40">
+        <v>0.08903223440955453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02256619013955256</v>
+        <v>0.01928688531712834</v>
       </c>
       <c r="C41">
-        <v>-0.01436333442492205</v>
+        <v>0.01033312179178437</v>
       </c>
       <c r="D41">
-        <v>-0.0009462388879869933</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01446862855380865</v>
+      </c>
+      <c r="E41">
+        <v>-0.057816317357254</v>
+      </c>
+      <c r="F41">
+        <v>0.05645879573704841</v>
+      </c>
+      <c r="G41">
+        <v>0.04148074189949583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03998136839517364</v>
+        <v>0.02941242798893902</v>
       </c>
       <c r="C43">
-        <v>-0.03458125097958309</v>
+        <v>0.02484673473193817</v>
       </c>
       <c r="D43">
-        <v>-0.02737067837679222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0413573475599238</v>
+      </c>
+      <c r="E43">
+        <v>-0.07370071784064124</v>
+      </c>
+      <c r="F43">
+        <v>0.0568545246086872</v>
+      </c>
+      <c r="G43">
+        <v>0.0660744704758479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01308661603013081</v>
+        <v>0.01415540684203291</v>
       </c>
       <c r="C44">
-        <v>-0.06805827983271488</v>
+        <v>0.04821048698062187</v>
       </c>
       <c r="D44">
-        <v>-0.007314320214878251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03016429292935387</v>
+      </c>
+      <c r="E44">
+        <v>-0.0869857020546797</v>
+      </c>
+      <c r="F44">
+        <v>0.06859053115389471</v>
+      </c>
+      <c r="G44">
+        <v>0.03122618525018682</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007719727617924842</v>
+        <v>0.00855331327119653</v>
       </c>
       <c r="C46">
-        <v>-0.02944918260705461</v>
+        <v>0.02971789345320234</v>
       </c>
       <c r="D46">
-        <v>0.0170409548365882</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009618052168140526</v>
+      </c>
+      <c r="E46">
+        <v>-0.0563116133283405</v>
+      </c>
+      <c r="F46">
+        <v>0.09382080015726929</v>
+      </c>
+      <c r="G46">
+        <v>0.0622603128568656</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08427552896058461</v>
+        <v>0.08811676167462346</v>
       </c>
       <c r="C47">
-        <v>-0.07173235522522889</v>
+        <v>0.08204942246358805</v>
       </c>
       <c r="D47">
-        <v>0.02977010260189718</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02250724719876786</v>
+      </c>
+      <c r="E47">
+        <v>-0.06714135979708685</v>
+      </c>
+      <c r="F47">
+        <v>0.04153520785481851</v>
+      </c>
+      <c r="G47">
+        <v>0.07816583151430175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01876226629057293</v>
+        <v>0.01661293467486129</v>
       </c>
       <c r="C48">
-        <v>-0.01486034131579745</v>
+        <v>0.01623303978664221</v>
       </c>
       <c r="D48">
-        <v>0.01825486029461426</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.009139110561830189</v>
+      </c>
+      <c r="E48">
+        <v>-0.06682870692240421</v>
+      </c>
+      <c r="F48">
+        <v>0.0783355482736495</v>
+      </c>
+      <c r="G48">
+        <v>0.05753945433171782</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08117124199345094</v>
+        <v>0.07047138034230722</v>
       </c>
       <c r="C50">
-        <v>-0.08331437983747182</v>
+        <v>0.07636924586167812</v>
       </c>
       <c r="D50">
-        <v>0.03009298019118993</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.00771741160020474</v>
+      </c>
+      <c r="E50">
+        <v>-0.07424468134397727</v>
+      </c>
+      <c r="F50">
+        <v>0.01819909078858119</v>
+      </c>
+      <c r="G50">
+        <v>0.09423003004702407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01534943207903542</v>
+        <v>0.009566294405121377</v>
       </c>
       <c r="C51">
-        <v>-0.04996007034433661</v>
+        <v>0.03208379801362852</v>
       </c>
       <c r="D51">
-        <v>-0.032420255207</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05121081663982124</v>
+      </c>
+      <c r="E51">
+        <v>-0.0486455367935913</v>
+      </c>
+      <c r="F51">
+        <v>0.08012693775884744</v>
+      </c>
+      <c r="G51">
+        <v>0.03686537194905097</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08354346557850867</v>
+        <v>0.09584500759412742</v>
       </c>
       <c r="C53">
-        <v>-0.07555658352599098</v>
+        <v>0.08600064668157338</v>
       </c>
       <c r="D53">
-        <v>0.05139826388662126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05536037709363634</v>
+      </c>
+      <c r="E53">
+        <v>-0.06079396658506558</v>
+      </c>
+      <c r="F53">
+        <v>0.03847146478526847</v>
+      </c>
+      <c r="G53">
+        <v>0.07867292614069579</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03228296729162344</v>
+        <v>0.0270444090532287</v>
       </c>
       <c r="C54">
-        <v>-0.04038926795771432</v>
+        <v>0.03392253343878282</v>
       </c>
       <c r="D54">
-        <v>0.002411019046066922</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02283898932192545</v>
+      </c>
+      <c r="E54">
+        <v>-0.05633889615527046</v>
+      </c>
+      <c r="F54">
+        <v>0.08688735716620445</v>
+      </c>
+      <c r="G54">
+        <v>0.06329542701164163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07631015858506561</v>
+        <v>0.08668617581857675</v>
       </c>
       <c r="C55">
-        <v>-0.05671303825710932</v>
+        <v>0.06955274047997134</v>
       </c>
       <c r="D55">
-        <v>0.05630460327860689</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05806047432752746</v>
+      </c>
+      <c r="E55">
+        <v>-0.043234735460374</v>
+      </c>
+      <c r="F55">
+        <v>0.02078300329491842</v>
+      </c>
+      <c r="G55">
+        <v>0.05988269300704519</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1474963282401667</v>
+        <v>0.1493399706982632</v>
       </c>
       <c r="C56">
-        <v>-0.09254521015072791</v>
+        <v>0.1067020874828807</v>
       </c>
       <c r="D56">
-        <v>0.05011238826627486</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05470387547127999</v>
+      </c>
+      <c r="E56">
+        <v>-0.04179488902395675</v>
+      </c>
+      <c r="F56">
+        <v>-0.002989201258178395</v>
+      </c>
+      <c r="G56">
+        <v>0.04161258142847166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04485755500448702</v>
+        <v>0.02682815082203723</v>
       </c>
       <c r="C58">
-        <v>-0.02840687276910712</v>
+        <v>0.02612352518903219</v>
       </c>
       <c r="D58">
-        <v>-0.7001371649169539</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3728223507202828</v>
+      </c>
+      <c r="E58">
+        <v>-0.6642052197922393</v>
+      </c>
+      <c r="F58">
+        <v>-0.4832692199072233</v>
+      </c>
+      <c r="G58">
+        <v>-0.3256503090826008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1336378445632244</v>
+        <v>0.1463631062580706</v>
       </c>
       <c r="C59">
-        <v>0.1984979979302217</v>
+        <v>-0.1878958546333115</v>
       </c>
       <c r="D59">
-        <v>-0.02554114152244633</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02663975927664872</v>
+      </c>
+      <c r="E59">
+        <v>-0.02857434941622523</v>
+      </c>
+      <c r="F59">
+        <v>0.02688090917083026</v>
+      </c>
+      <c r="G59">
+        <v>-0.02064900381929278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3083699028035283</v>
+        <v>0.2785716021629595</v>
       </c>
       <c r="C60">
-        <v>-0.1104370049068653</v>
+        <v>0.1082616828232432</v>
       </c>
       <c r="D60">
-        <v>-0.1583894507133992</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2656468897048904</v>
+      </c>
+      <c r="E60">
+        <v>0.2385693780998581</v>
+      </c>
+      <c r="F60">
+        <v>-0.07400486359909939</v>
+      </c>
+      <c r="G60">
+        <v>0.03807853042537592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04350304277310485</v>
+        <v>0.04052052926230387</v>
       </c>
       <c r="C61">
-        <v>-0.06397860259833951</v>
+        <v>0.06056218254910814</v>
       </c>
       <c r="D61">
-        <v>-0.01026708818574589</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03877687222528135</v>
+      </c>
+      <c r="E61">
+        <v>-0.04872648589555298</v>
+      </c>
+      <c r="F61">
+        <v>0.06689884532064425</v>
+      </c>
+      <c r="G61">
+        <v>0.05782217838349938</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.0161469432807276</v>
+        <v>0.01492724841535961</v>
       </c>
       <c r="C63">
-        <v>-0.0342312518691253</v>
+        <v>0.0317267647555464</v>
       </c>
       <c r="D63">
-        <v>0.01618243097384535</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01470031252845317</v>
+      </c>
+      <c r="E63">
+        <v>-0.05941068911068376</v>
+      </c>
+      <c r="F63">
+        <v>0.05157454740766907</v>
+      </c>
+      <c r="G63">
+        <v>0.06590349023927471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05004575823598871</v>
+        <v>0.05547560770997135</v>
       </c>
       <c r="C64">
-        <v>-0.04708124930435006</v>
+        <v>0.05743437410288523</v>
       </c>
       <c r="D64">
-        <v>0.001380280634953135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.003281034473579324</v>
+      </c>
+      <c r="E64">
+        <v>-0.03540428471941636</v>
+      </c>
+      <c r="F64">
+        <v>0.07109169984122253</v>
+      </c>
+      <c r="G64">
+        <v>0.05030080558776426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08223182396994265</v>
+        <v>0.0664968602035895</v>
       </c>
       <c r="C65">
-        <v>-0.02927466507889552</v>
+        <v>0.02833658814345492</v>
       </c>
       <c r="D65">
-        <v>-0.05971020620088917</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08541013513686299</v>
+      </c>
+      <c r="E65">
+        <v>-0.05560157439035199</v>
+      </c>
+      <c r="F65">
+        <v>0.01065489331725033</v>
+      </c>
+      <c r="G65">
+        <v>0.02044215940931021</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06122713020790516</v>
+        <v>0.05116203914906435</v>
       </c>
       <c r="C66">
-        <v>-0.0898071813782272</v>
+        <v>0.08225405134211726</v>
       </c>
       <c r="D66">
-        <v>-0.03576699476950912</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07237928629635569</v>
+      </c>
+      <c r="E66">
+        <v>-0.05478199711294167</v>
+      </c>
+      <c r="F66">
+        <v>0.08001883859638809</v>
+      </c>
+      <c r="G66">
+        <v>0.05598764677760857</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05155342337174455</v>
+        <v>0.04487137843682337</v>
       </c>
       <c r="C67">
-        <v>-0.03151085671687974</v>
+        <v>0.02872698463677627</v>
       </c>
       <c r="D67">
-        <v>0.02222485874635651</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.003766459297019978</v>
+      </c>
+      <c r="E67">
+        <v>-0.02590471543660935</v>
+      </c>
+      <c r="F67">
+        <v>0.03679266111872836</v>
+      </c>
+      <c r="G67">
+        <v>0.02914157537209237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1314229803747092</v>
+        <v>0.1537159364795867</v>
       </c>
       <c r="C68">
-        <v>0.279292737925166</v>
+        <v>-0.2432562235267403</v>
       </c>
       <c r="D68">
-        <v>0.003957833584687455</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01532962379586553</v>
+      </c>
+      <c r="E68">
+        <v>-0.03858039145406132</v>
+      </c>
+      <c r="F68">
+        <v>0.009303699932719652</v>
+      </c>
+      <c r="G68">
+        <v>0.03013395137951835</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0910811617190659</v>
+        <v>0.08683514526308526</v>
       </c>
       <c r="C69">
-        <v>-0.07202186683504185</v>
+        <v>0.08954462000049826</v>
       </c>
       <c r="D69">
-        <v>0.04456213550150138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01335495558221485</v>
+      </c>
+      <c r="E69">
+        <v>-0.0530909065399669</v>
+      </c>
+      <c r="F69">
+        <v>0.06971160072694357</v>
+      </c>
+      <c r="G69">
+        <v>0.07025084734700952</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1199292159630344</v>
+        <v>0.146195261471163</v>
       </c>
       <c r="C71">
-        <v>0.2530697131587793</v>
+        <v>-0.2394305679022519</v>
       </c>
       <c r="D71">
-        <v>-0.01682282326570298</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0004553604695613633</v>
+      </c>
+      <c r="E71">
+        <v>-0.05974142898647883</v>
+      </c>
+      <c r="F71">
+        <v>0.02723078259417249</v>
+      </c>
+      <c r="G71">
+        <v>0.05839780857995742</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09215156219786395</v>
+        <v>0.1001717824942163</v>
       </c>
       <c r="C72">
-        <v>-0.05535972736352657</v>
+        <v>0.05811161882188852</v>
       </c>
       <c r="D72">
-        <v>-0.002552597093009216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02616632891585107</v>
+      </c>
+      <c r="E72">
+        <v>-0.02598589103436211</v>
+      </c>
+      <c r="F72">
+        <v>0.04417358421224593</v>
+      </c>
+      <c r="G72">
+        <v>0.06465210433472174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4042255155839975</v>
+        <v>0.3417904222112377</v>
       </c>
       <c r="C73">
-        <v>-0.04922855402325173</v>
+        <v>0.07123479908314145</v>
       </c>
       <c r="D73">
-        <v>-0.382834153701781</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5224089129371655</v>
+      </c>
+      <c r="E73">
+        <v>0.4372486362048519</v>
+      </c>
+      <c r="F73">
+        <v>-0.2298480603488712</v>
+      </c>
+      <c r="G73">
+        <v>0.02553573661621676</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1043556030009202</v>
+        <v>0.109311911000049</v>
       </c>
       <c r="C74">
-        <v>-0.09589854689433992</v>
+        <v>0.09572276106771972</v>
       </c>
       <c r="D74">
-        <v>0.03124566400116533</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04415238807213694</v>
+      </c>
+      <c r="E74">
+        <v>-0.06190266382758419</v>
+      </c>
+      <c r="F74">
+        <v>-0.002712350220404649</v>
+      </c>
+      <c r="G74">
+        <v>0.06715933172127908</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2527450398575889</v>
+        <v>0.2570177629341047</v>
       </c>
       <c r="C75">
-        <v>-0.1040581853202013</v>
+        <v>0.1323082011487599</v>
       </c>
       <c r="D75">
-        <v>0.1203161983469908</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1486034529223801</v>
+      </c>
+      <c r="E75">
+        <v>-0.04306773565274235</v>
+      </c>
+      <c r="F75">
+        <v>-0.04422997911630837</v>
+      </c>
+      <c r="G75">
+        <v>0.00949139793192774</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1135308108724172</v>
+        <v>0.1274344722952275</v>
       </c>
       <c r="C76">
-        <v>-0.08085479432192295</v>
+        <v>0.09396381530951864</v>
       </c>
       <c r="D76">
-        <v>0.06075262322576056</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07480143144580198</v>
+      </c>
+      <c r="E76">
+        <v>-0.06636039219149711</v>
+      </c>
+      <c r="F76">
+        <v>0.01941313099177878</v>
+      </c>
+      <c r="G76">
+        <v>0.05596930924980182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07681533236247927</v>
+        <v>0.06289225699961568</v>
       </c>
       <c r="C77">
-        <v>-0.05311748529953918</v>
+        <v>0.06349480202938819</v>
       </c>
       <c r="D77">
-        <v>-0.05031517971909888</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05050492862508027</v>
+      </c>
+      <c r="E77">
+        <v>-0.09991342076566709</v>
+      </c>
+      <c r="F77">
+        <v>0.1597660126587014</v>
+      </c>
+      <c r="G77">
+        <v>-0.1053891265887972</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04862844370250571</v>
+        <v>0.04512265157534191</v>
       </c>
       <c r="C78">
-        <v>-0.0468310580761177</v>
+        <v>0.05618590441725747</v>
       </c>
       <c r="D78">
-        <v>-0.01889817190132929</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05709535855715647</v>
+      </c>
+      <c r="E78">
+        <v>-0.05557623989216691</v>
+      </c>
+      <c r="F78">
+        <v>0.0736994360331565</v>
+      </c>
+      <c r="G78">
+        <v>0.04989903649540457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0296302235474615</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0459394344283245</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07485870400386731</v>
+      </c>
+      <c r="E79">
+        <v>-0.05853985350449799</v>
+      </c>
+      <c r="F79">
+        <v>-0.01303956872042623</v>
+      </c>
+      <c r="G79">
+        <v>0.06202946394678566</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03951783586466581</v>
+        <v>0.03075689928289536</v>
       </c>
       <c r="C80">
-        <v>-0.04536895286667692</v>
+        <v>0.04848065728580838</v>
       </c>
       <c r="D80">
-        <v>-0.02391015342195514</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03666167953164523</v>
+      </c>
+      <c r="E80">
+        <v>-0.01912514192474944</v>
+      </c>
+      <c r="F80">
+        <v>0.04541364812209217</v>
+      </c>
+      <c r="G80">
+        <v>-0.02402813483703138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1387839542117567</v>
+        <v>0.138821312492144</v>
       </c>
       <c r="C81">
-        <v>-0.07513421890072199</v>
+        <v>0.09407086227161207</v>
       </c>
       <c r="D81">
-        <v>0.08660379778777692</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1193483607531898</v>
+      </c>
+      <c r="E81">
+        <v>-0.06726787668713095</v>
+      </c>
+      <c r="F81">
+        <v>-0.02698400064090153</v>
+      </c>
+      <c r="G81">
+        <v>0.02101237670029915</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1757004619226198</v>
+        <v>0.2126155153799397</v>
       </c>
       <c r="C82">
-        <v>-0.09286607272626156</v>
+        <v>0.1571493365650329</v>
       </c>
       <c r="D82">
-        <v>0.1812777874678601</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2461948309002238</v>
+      </c>
+      <c r="E82">
+        <v>0.02325533195356742</v>
+      </c>
+      <c r="F82">
+        <v>0.05333563714048632</v>
+      </c>
+      <c r="G82">
+        <v>0.04725996002915333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03959988246117387</v>
+        <v>0.02678723034428374</v>
       </c>
       <c r="C83">
-        <v>-0.03161807120904867</v>
+        <v>0.04358525794692578</v>
       </c>
       <c r="D83">
-        <v>-0.0333612189988421</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02879736878378908</v>
+      </c>
+      <c r="E83">
+        <v>-0.02589344264673527</v>
+      </c>
+      <c r="F83">
+        <v>0.04696095484530752</v>
+      </c>
+      <c r="G83">
+        <v>-0.00143615698058532</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>7.650067866888996e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.000728981244439205</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001100210187423101</v>
+      </c>
+      <c r="E84">
+        <v>-0.000801629877472182</v>
+      </c>
+      <c r="F84">
+        <v>0.001019221965378133</v>
+      </c>
+      <c r="G84">
+        <v>0.0006546000494636541</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2202335208922796</v>
+        <v>0.2031822574031048</v>
       </c>
       <c r="C85">
-        <v>-0.1001114238336438</v>
+        <v>0.1158267545560926</v>
       </c>
       <c r="D85">
-        <v>0.1510070845806784</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1152804366704545</v>
+      </c>
+      <c r="E85">
+        <v>0.02798220684996993</v>
+      </c>
+      <c r="F85">
+        <v>-0.0917671269937889</v>
+      </c>
+      <c r="G85">
+        <v>0.05606726629353531</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.006599478122394255</v>
+        <v>0.009111250522733332</v>
       </c>
       <c r="C86">
-        <v>-0.02765707725287</v>
+        <v>0.02022930308488122</v>
       </c>
       <c r="D86">
-        <v>-0.04396899603008449</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05627108340493338</v>
+      </c>
+      <c r="E86">
+        <v>-0.07371220492409229</v>
+      </c>
+      <c r="F86">
+        <v>0.1130243038650169</v>
+      </c>
+      <c r="G86">
+        <v>0.05720032271966154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.0241538264819014</v>
+        <v>0.02444324766132035</v>
       </c>
       <c r="C87">
-        <v>-0.005135622702919695</v>
+        <v>0.01240551167522371</v>
       </c>
       <c r="D87">
-        <v>-0.08288901777311321</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07692621330509083</v>
+      </c>
+      <c r="E87">
+        <v>-0.1274767812183766</v>
+      </c>
+      <c r="F87">
+        <v>0.08236039003869589</v>
+      </c>
+      <c r="G87">
+        <v>0.0007803210582977791</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1051573394139791</v>
+        <v>0.09118331050654863</v>
       </c>
       <c r="C88">
-        <v>-0.07596431858621761</v>
+        <v>0.06412745820535209</v>
       </c>
       <c r="D88">
-        <v>0.0278594925613725</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.003653525412528956</v>
+      </c>
+      <c r="E88">
+        <v>-0.04957567595647153</v>
+      </c>
+      <c r="F88">
+        <v>0.07580784273174213</v>
+      </c>
+      <c r="G88">
+        <v>0.02392639551787362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1871126623574381</v>
+        <v>0.2222147697319251</v>
       </c>
       <c r="C89">
-        <v>0.3735471657939653</v>
+        <v>-0.3773635753880507</v>
       </c>
       <c r="D89">
-        <v>0.02768185159474212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02644263286373297</v>
+      </c>
+      <c r="E89">
+        <v>-0.06567065143056201</v>
+      </c>
+      <c r="F89">
+        <v>0.09120164722935219</v>
+      </c>
+      <c r="G89">
+        <v>-0.0235902233499482</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1790301303880656</v>
+        <v>0.2016303190093104</v>
       </c>
       <c r="C90">
-        <v>0.3300891497439293</v>
+        <v>-0.3075865207417292</v>
       </c>
       <c r="D90">
-        <v>0.03222128347037976</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02728042036222359</v>
+      </c>
+      <c r="E90">
+        <v>-0.06705729048935556</v>
+      </c>
+      <c r="F90">
+        <v>0.0394664505955526</v>
+      </c>
+      <c r="G90">
+        <v>0.006407486607632633</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1885643164414531</v>
+        <v>0.1858633162235721</v>
       </c>
       <c r="C91">
-        <v>-0.1284597002395872</v>
+        <v>0.1450555232341537</v>
       </c>
       <c r="D91">
-        <v>0.1104949983356469</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1265498852166723</v>
+      </c>
+      <c r="E91">
+        <v>-0.04612938336946363</v>
+      </c>
+      <c r="F91">
+        <v>-0.0103350355319729</v>
+      </c>
+      <c r="G91">
+        <v>0.02560487994283384</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1646064194620072</v>
+        <v>0.1836529382531593</v>
       </c>
       <c r="C92">
-        <v>0.2859441837826572</v>
+        <v>-0.2900455535090264</v>
       </c>
       <c r="D92">
-        <v>0.02810382218634332</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.0295524959218323</v>
+      </c>
+      <c r="E92">
+        <v>-0.06989389887012408</v>
+      </c>
+      <c r="F92">
+        <v>0.07313807158364899</v>
+      </c>
+      <c r="G92">
+        <v>0.01586984298521318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2022344062950166</v>
+        <v>0.2245606259241877</v>
       </c>
       <c r="C93">
-        <v>0.3367467383569664</v>
+        <v>-0.3177181809716204</v>
       </c>
       <c r="D93">
-        <v>0.03328913607794418</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02204599432666582</v>
+      </c>
+      <c r="E93">
+        <v>-0.04077842342877094</v>
+      </c>
+      <c r="F93">
+        <v>0.01660657558397765</v>
+      </c>
+      <c r="G93">
+        <v>0.03738651428520677</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3325454042350167</v>
+        <v>0.3363368399499978</v>
       </c>
       <c r="C94">
-        <v>-0.1548728102851716</v>
+        <v>0.1916324346462214</v>
       </c>
       <c r="D94">
-        <v>0.3571768194258563</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4326242625362922</v>
+      </c>
+      <c r="E94">
+        <v>-0.0004949405933917017</v>
+      </c>
+      <c r="F94">
+        <v>-0.2409177690516791</v>
+      </c>
+      <c r="G94">
+        <v>-0.4250278324490496</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.114469372769183</v>
+        <v>0.08481878517541845</v>
       </c>
       <c r="C95">
-        <v>-0.07131015303469031</v>
+        <v>0.06410448218597481</v>
       </c>
       <c r="D95">
-        <v>-0.149514866218313</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1839364280044614</v>
+      </c>
+      <c r="E95">
+        <v>0.08853034102736047</v>
+      </c>
+      <c r="F95">
+        <v>0.5802745123277989</v>
+      </c>
+      <c r="G95">
+        <v>-0.6984916678004686</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1957901664804442</v>
+        <v>0.1874088820266087</v>
       </c>
       <c r="C98">
-        <v>-0.01985474679006366</v>
+        <v>0.04571375389258353</v>
       </c>
       <c r="D98">
-        <v>-0.1340831168623177</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2005867598005126</v>
+      </c>
+      <c r="E98">
+        <v>0.1316657381455612</v>
+      </c>
+      <c r="F98">
+        <v>-0.064589861438982</v>
+      </c>
+      <c r="G98">
+        <v>0.0833838369444115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006408143420034096</v>
+        <v>0.004993197253449952</v>
       </c>
       <c r="C101">
-        <v>-0.03450132228534043</v>
+        <v>0.02959501313196065</v>
       </c>
       <c r="D101">
-        <v>0.01508842659873498</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01583502032898806</v>
+      </c>
+      <c r="E101">
+        <v>-0.04869107780842642</v>
+      </c>
+      <c r="F101">
+        <v>0.08131624545764968</v>
+      </c>
+      <c r="G101">
+        <v>0.0641289487777222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1250749422908743</v>
+        <v>0.126727631006869</v>
       </c>
       <c r="C102">
-        <v>-0.06804775365586078</v>
+        <v>0.1003608156496865</v>
       </c>
       <c r="D102">
-        <v>0.04189306481475283</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05212015962310605</v>
+      </c>
+      <c r="E102">
+        <v>0.0117458589670207</v>
+      </c>
+      <c r="F102">
+        <v>0.01830113310124646</v>
+      </c>
+      <c r="G102">
+        <v>0.0002387090407753107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
